--- a/exam-marks.xlsx
+++ b/exam-marks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -36,13 +36,13 @@
   <calcPr calcId="162913"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId15"/>
-    <pivotCache cacheId="5" r:id="rId16"/>
-    <pivotCache cacheId="6" r:id="rId17"/>
+    <pivotCache cacheId="1" r:id="rId16"/>
+    <pivotCache cacheId="2" r:id="rId17"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{841E416B-1EF1-43b6-AB56-02D37102CBD5}">
       <x15:pivotCaches>
-        <pivotCache cacheId="7" r:id="rId18"/>
+        <pivotCache cacheId="3" r:id="rId18"/>
       </x15:pivotCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{983426D0-5260-488c-9760-48F4B6AC55F4}">
@@ -759,7 +759,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1114,7 +1113,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1656,7 +1654,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1739,7 +1736,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2050,7 +2046,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4535,7 +4530,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotChartTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotChartTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
@@ -4758,7 +4753,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0"/>
@@ -5251,7 +5246,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
@@ -5622,10 +5617,10 @@
     <tableColumn id="4" name="Status" dataDxfId="2">
       <calculatedColumnFormula>SUM(C2+D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Percentage" dataDxfId="0">
+    <tableColumn id="5" name="Percentage" dataDxfId="1">
       <calculatedColumnFormula>(E2*100)/100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Column2" dataDxfId="1"/>
+    <tableColumn id="6" name="Column2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6665,8 +6660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6728,18 +6723,18 @@
         <v>1</v>
       </c>
       <c r="C3" s="30">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" s="5">
         <v>70</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F3">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I3" t="s">
         <v>48</v>
@@ -6756,18 +6751,18 @@
         <v>4</v>
       </c>
       <c r="C4" s="30">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" s="5">
         <v>48</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I4" t="s">
         <v>49</v>
@@ -6840,18 +6835,18 @@
         <v>3</v>
       </c>
       <c r="C7" s="30">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" s="5">
         <v>70</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -6862,18 +6857,18 @@
         <v>17</v>
       </c>
       <c r="C8" s="30">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D8" s="5">
         <v>30</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -6884,18 +6879,18 @@
         <v>12</v>
       </c>
       <c r="C9" s="30">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="5">
         <v>28</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -6928,18 +6923,18 @@
         <v>8</v>
       </c>
       <c r="C11" s="30">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D11" s="5">
         <v>76</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -11352,7 +11347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>

--- a/exam-marks.xlsx
+++ b/exam-marks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -23,9 +23,11 @@
     <sheet name="Sheet9" sheetId="13" state="hidden" r:id="rId9"/>
     <sheet name="Sheet7" sheetId="8" state="hidden" r:id="rId10"/>
     <sheet name="js-quiz-3-4" sheetId="14" r:id="rId11"/>
-    <sheet name="Sheet5" sheetId="6" state="hidden" r:id="rId12"/>
-    <sheet name="Sheet6" sheetId="7" state="hidden" r:id="rId13"/>
-    <sheet name="Sheet4" sheetId="5" state="hidden" r:id="rId14"/>
+    <sheet name="Sheet12" sheetId="15" r:id="rId12"/>
+    <sheet name="Sheet13" sheetId="16" r:id="rId13"/>
+    <sheet name="Sheet5" sheetId="6" state="hidden" r:id="rId14"/>
+    <sheet name="Sheet6" sheetId="7" state="hidden" r:id="rId15"/>
+    <sheet name="Sheet4" sheetId="5" state="hidden" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$2:$G$15</definedName>
@@ -35,19 +37,19 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId15"/>
-    <pivotCache cacheId="1" r:id="rId16"/>
-    <pivotCache cacheId="2" r:id="rId17"/>
+    <pivotCache cacheId="0" r:id="rId17"/>
+    <pivotCache cacheId="1" r:id="rId18"/>
+    <pivotCache cacheId="2" r:id="rId19"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{841E416B-1EF1-43b6-AB56-02D37102CBD5}">
       <x15:pivotCaches>
-        <pivotCache cacheId="3" r:id="rId18"/>
+        <pivotCache cacheId="3" r:id="rId20"/>
       </x15:pivotCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{983426D0-5260-488c-9760-48F4B6AC55F4}">
       <x15:pivotTableReferences>
-        <x15:pivotTableReference r:id="rId19"/>
+        <x15:pivotTableReference r:id="rId21"/>
       </x15:pivotTableReferences>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -108,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -478,7 +480,139 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="46">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -5537,22 +5671,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0" headerRowDxfId="45">
   <autoFilter ref="A1:F15"/>
   <sortState ref="A2:D15">
     <sortCondition descending="1" ref="B2:B15"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="28"/>
-    <tableColumn id="2" name="Name" dataDxfId="27"/>
-    <tableColumn id="3" name="Marks" dataDxfId="26"/>
-    <tableColumn id="4" name="Status" dataDxfId="25">
+    <tableColumn id="1" name="ID" dataDxfId="44"/>
+    <tableColumn id="2" name="Name" dataDxfId="43"/>
+    <tableColumn id="3" name="Marks" dataDxfId="42"/>
+    <tableColumn id="4" name="Status" dataDxfId="41">
       <calculatedColumnFormula>IF(C2&gt;=56,"Pass","Fail")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Reward" dataDxfId="24">
+    <tableColumn id="5" name="Reward" dataDxfId="40">
       <calculatedColumnFormula>IF(AND(C2&gt;=80*70%,C2&lt;80*80%),"Good","Bad")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Grade" dataDxfId="23">
+    <tableColumn id="6" name="Grade" dataDxfId="39">
       <calculatedColumnFormula>IF(AND(C2&gt;=80*70%,C2&lt;80*80%),"A",IF(AND(C2&gt;=80*80%,C2&lt;80*90%), "A+",IF(C2&gt;=80*90%, "A++","Fail")))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5561,27 +5695,73 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="H1:M15" totalsRowShown="0" headerRowDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="H1:M15" totalsRowShown="0" headerRowDxfId="38">
   <autoFilter ref="H1:M15"/>
   <sortState ref="H2:K15">
     <sortCondition descending="1" ref="I2:I15"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="21"/>
-    <tableColumn id="2" name="Name" dataDxfId="20"/>
-    <tableColumn id="3" name="Marks" dataDxfId="19"/>
-    <tableColumn id="4" name="Status" dataDxfId="18">
+    <tableColumn id="1" name="ID" dataDxfId="37"/>
+    <tableColumn id="2" name="Name" dataDxfId="36"/>
+    <tableColumn id="3" name="Marks" dataDxfId="35"/>
+    <tableColumn id="4" name="Status" dataDxfId="34">
       <calculatedColumnFormula>IF(J2&gt;=50,"Pass","Fail")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Column1" dataDxfId="17"/>
+    <tableColumn id="5" name="Column1" dataDxfId="33"/>
+    <tableColumn id="6" name="Column2" dataDxfId="32"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A1:G13" totalsRowShown="0" headerRowDxfId="31">
+  <autoFilter ref="A1:G13"/>
+  <sortState ref="A2:D15">
+    <sortCondition descending="1" ref="B2:B15"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" name="ID" dataDxfId="30"/>
+    <tableColumn id="2" name="Name" dataDxfId="29"/>
+    <tableColumn id="7" name="Written" dataDxfId="28"/>
+    <tableColumn id="3" name="MCQ" dataDxfId="27"/>
+    <tableColumn id="4" name="Status" dataDxfId="26">
+      <calculatedColumnFormula>SUM(C2+D2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Percentage" dataDxfId="25">
+      <calculatedColumnFormula>(E2*100)/62</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Column2" dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1345" displayName="Table1345" ref="A1:G13" totalsRowShown="0" headerRowDxfId="23">
+  <autoFilter ref="A1:G13"/>
+  <sortState ref="A2:D15">
+    <sortCondition descending="1" ref="B2:B15"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" name="ID" dataDxfId="22"/>
+    <tableColumn id="2" name="Name" dataDxfId="21"/>
+    <tableColumn id="7" name="Written" dataDxfId="20"/>
+    <tableColumn id="3" name="MCQ" dataDxfId="19"/>
+    <tableColumn id="4" name="Status" dataDxfId="18">
+      <calculatedColumnFormula>SUM(C2+D2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Percentage" dataDxfId="17">
+      <calculatedColumnFormula>(E2*100)/100</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="6" name="Column2" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A1:G13" totalsRowShown="0" headerRowDxfId="15">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table13456" displayName="Table13456" ref="A1:G13" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="A1:G13"/>
   <sortState ref="A2:D15">
     <sortCondition descending="1" ref="B2:B15"/>
@@ -5595,7 +5775,7 @@
       <calculatedColumnFormula>SUM(C2+D2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="Percentage" dataDxfId="9">
-      <calculatedColumnFormula>(E2*100)/62</calculatedColumnFormula>
+      <calculatedColumnFormula>(E2*100)/80</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="Column2" dataDxfId="8"/>
   </tableColumns>
@@ -5603,8 +5783,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1345" displayName="Table1345" ref="A1:G13" totalsRowShown="0" headerRowDxfId="7">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table134567" displayName="Table134567" ref="A1:G13" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:G13"/>
   <sortState ref="A2:D15">
     <sortCondition descending="1" ref="B2:B15"/>
@@ -5618,7 +5798,7 @@
       <calculatedColumnFormula>SUM(C2+D2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="Percentage" dataDxfId="1">
-      <calculatedColumnFormula>(E2*100)/100</calculatedColumnFormula>
+      <calculatedColumnFormula>(E2*100)/28</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="Column2" dataDxfId="0"/>
   </tableColumns>
@@ -6660,8 +6840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7004,6 +7184,698 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1246209</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="30">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5">
+        <v>54</v>
+      </c>
+      <c r="E2" s="4">
+        <f t="shared" ref="E2:E13" si="0">SUM(C2+D2)</f>
+        <v>68</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F13" si="1">(E2*100)/80</f>
+        <v>85</v>
+      </c>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1247404</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5">
+        <v>70</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>101.25</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1247197</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="30">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5">
+        <v>48</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1247484</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="30">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5">
+        <v>68</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>93.75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1247166</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="30">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5">
+        <v>78</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1247331</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="30">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>70</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="1">
+        <v>43414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1246972</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="30">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5">
+        <v>30</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1246188</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="30">
+        <v>11</v>
+      </c>
+      <c r="D9" s="5">
+        <v>28</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>48.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1246991</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="30">
+        <v>6</v>
+      </c>
+      <c r="D10" s="5">
+        <v>74</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1246913</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="30">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5">
+        <v>76</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>1246643</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="30">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>64</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>1246494</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="30">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5">
+        <v>60</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>83.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <f>COUNT(A2:A13)</f>
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="6">
+        <f>MAX(D2:D13)</f>
+        <v>78</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1246209</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="30">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4">
+        <f t="shared" ref="E2:E13" si="0">SUM(C2+D2)</f>
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F13" si="1">(E2*100)/28</f>
+        <v>64.285714285714292</v>
+      </c>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1247404</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>57.142857142857146</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1247197</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="30">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>57.142857142857146</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1247484</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="30">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1247166</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="30">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>64.285714285714292</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1247331</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="30">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="1">
+        <v>43414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1246972</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="30">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1246188</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="30">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>6</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>21.428571428571427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1246991</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="30">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>64.285714285714292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1246913</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="30">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>1246643</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="30">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>35.714285714285715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>1246494</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="30">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>6</v>
+      </c>
+      <c r="E13" s="4">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>35.714285714285715</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <f>COUNT(A2:A13)</f>
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="6">
+        <f>MAX(D2:D13)</f>
+        <v>18</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D77"/>
   <sheetViews>
@@ -8074,7 +8946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B60"/>
   <sheetViews>
@@ -8559,7 +9431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
